--- a/biology/Histoire de la zoologie et de la botanique/David_Meredith_Seares_Watson/David_Meredith_Seares_Watson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Meredith_Seares_Watson/David_Meredith_Seares_Watson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Meredith Seares Watson (18 juin 1886-23 juillet 1973) est un zoologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Watson naît à Higher Broughton, près de Salford, dans le Lancashire (aujourd'hui le Grand Manchester), fils unique de David Watson, un métallurgiste. Il étudie au collège de grammaire de Manchester puis à l'université de la même ville. Il commence à se spécialiser en géologie et étudie les fossiles dans les dépôts de charbon. En 1907, il publie un article avec Marie Charlotte Carmichael Stopes (1880-1958) qui, au début de sa carrière, est paléobotaniste, sur les coal balls - des concrétions se formant dans le charbon avant compaction des sédiments et qui conservent ainsi la structure cellulaire des fossiles. Watson complète sa maîtrise en 1909.
 Il continue à développer son intérêt pour la paléontologie en étudiant au muséum d'histoire naturelle de Londres et par des visites en Afrique du Sud, en Australie et aux États-Unis. En 1912, il est embauché par James Peter Hill (1873-1954) pour donner des lectures en paléontologie des vertébrés à l'university College de Londres (UCL).
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Palaeontology and the Evolution of Man, Romanes Lecture, Oxford, 1928
 The Animal Bones from Skara Brae, 1931
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Biographie de l'UCL.</t>
         </is>
